--- a/Turma Home Jan2018/1° Sabado/Aula 3/Compra Carro Se E Ou.xlsx
+++ b/Turma Home Jan2018/1° Sabado/Aula 3/Compra Carro Se E Ou.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A0E60-9DC6-466B-B7B0-17EE5923EB3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,9 +43,6 @@
     <t>Ano</t>
   </si>
   <si>
-    <t>Comprar</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -106,6 +110,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Comprar?</t>
   </si>
 </sst>
 </file>
@@ -236,7 +243,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>61291</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -548,14 +555,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
@@ -565,7 +572,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -601,43 +608,39 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2005</v>
       </c>
-      <c r="D4" t="str">
-        <f>IF(OR(B4="bom",C4&gt;1998),"Pode Comprar","Não Comprar")</f>
-        <v>Pode Comprar</v>
-      </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2">
         <v>900</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" t="str">
         <f>IF(AND(D4="comprar",I4="concede"),F4&amp;" Conseguiu Comprar","")</f>
@@ -646,169 +649,145 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>1965</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" ref="D5:D10" si="0">IF(OR(B5="bom",C5&gt;1998),"Pode Comprar","Não Comprar")</f>
-        <v>Não Comprar</v>
-      </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2">
         <v>700</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J10" si="1">IF(AND(D5="comprar",I5="concede"),F5&amp;" Conseguiu Comprar","")</f>
+        <f t="shared" ref="J5:J10" si="0">IF(AND(D5="comprar",I5="concede"),F5&amp;" Conseguiu Comprar","")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1999</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>Pode Comprar</v>
-      </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>1200</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>1973</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>Pode Comprar</v>
-      </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2">
         <v>2500</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>1975</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>Não Comprar</v>
-      </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2">
         <v>1750</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>1993</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>Pode Comprar</v>
-      </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2">
         <v>800</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>1980</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>Não Comprar</v>
-      </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2">
         <v>1000</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
